--- a/webrouting/src/main/resources/static/documents/MaintenanceOrders - SAMPLE.xlsx
+++ b/webrouting/src/main/resources/static/documents/MaintenanceOrders - SAMPLE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPSC 488 Software Engineering\excel samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dakot\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7639FB6-5D41-47CD-83B4-28D020EB4CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D38B12E-4A6B-459D-A24D-097B95B0F178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1425" windowWidth="29040" windowHeight="15720" xr2:uid="{6F7B2A25-9F4D-490E-B70D-6C9AB6577A80}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="27045" windowHeight="15195" xr2:uid="{6F7B2A25-9F4D-490E-B70D-6C9AB6577A80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>William Shatner</t>
   </si>
   <si>
-    <t>Dakota Myers</t>
-  </si>
-  <si>
     <t>Alea Cramer</t>
   </si>
   <si>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>Change</t>
+  </si>
+  <si>
+    <t>Franz Ferdinand</t>
   </si>
 </sst>
 </file>
@@ -591,7 +591,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,28 +615,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -644,22 +644,22 @@
         <v>45049</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="D2" s="5">
         <v>500</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>0</v>
@@ -670,25 +670,25 @@
         <v>45017</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="5">
         <v>2500</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -696,25 +696,25 @@
         <v>45128</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="5">
         <v>5800</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -722,25 +722,25 @@
         <v>45068</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="5">
         <v>1000</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -748,25 +748,25 @@
         <v>44997</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="5">
         <v>5600</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -774,25 +774,25 @@
         <v>45087</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="5">
         <v>4500</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -800,25 +800,25 @@
         <v>45061</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="5">
         <v>3750</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -826,25 +826,25 @@
         <v>44750</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="5">
         <v>5620</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
